--- a/module5 - Markowitz Portfolio/Markowitz Efficient Frontier.xlsx
+++ b/module5 - Markowitz Portfolio/Markowitz Efficient Frontier.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Share A</t>
   </si>
@@ -70,12 +70,15 @@
   <si>
     <t>Correlation</t>
   </si>
+  <si>
+    <t>We can see that there is a set of efficient portfolios that provides greater return at same or even lower risk (markowitz idea)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -155,6 +165,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,11 +365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1565920752"/>
-        <c:axId val="1565926192"/>
+        <c:axId val="1517861184"/>
+        <c:axId val="1517862272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1565920752"/>
+        <c:axId val="1517861184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.0000000000000008E-2"/>
@@ -472,12 +483,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565926192"/>
+        <c:crossAx val="1517862272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1565926192"/>
+        <c:axId val="1517862272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -592,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565920752"/>
+        <c:crossAx val="1517861184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1220,7 +1231,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD7C18C1-973D-46B9-A397-14C1EB3BAC8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7C18C1-973D-46B9-A397-14C1EB3BAC8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1669,7 +1680,7 @@
     <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1678,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1700,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1709,7 +1720,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1724,7 +1735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1755,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1775,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1784,7 +1795,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1804,7 +1815,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1824,7 +1835,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1843,6 +1854,11 @@
         <v>0.08</v>
       </c>
       <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="N14" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
